--- a/erp/src/main/webapp/attachment/REPORT.xlsx
+++ b/erp/src/main/webapp/attachment/REPORT.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="102">
   <si>
     <t>序号</t>
   </si>
@@ -76,10 +76,6 @@
   </si>
   <si>
     <t>客户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级分类</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -231,10 +227,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>一级分类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MR处理人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -350,9 +342,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>一级分类</t>
-  </si>
-  <si>
     <t>二级分类</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -425,19 +414,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>订单进度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前节点进度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>当前节点</t>
   </si>
   <si>
     <t>当前负责人</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级品类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级品类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议投料日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级品类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级品类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -889,7 +890,7 @@
   <dimension ref="A1:BF3000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -925,25 +926,25 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>4</v>
@@ -952,22 +953,22 @@
         <v>5</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>7</v>
@@ -979,46 +980,46 @@
         <v>9</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Z1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4045,7 +4046,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5203,67 +5206,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
+      <c r="G1" s="7" t="s">
+        <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
@@ -59268,138 +59271,138 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:42" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="O1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="V1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="W1" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AB1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AD1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AE1" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AF1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AG1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AH1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AI1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AK1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="AI1" s="13" t="s">
+      <c r="AL1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AM1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AN1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="AL1" s="13" t="s">
+      <c r="AO1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="AM1" s="13" t="s">
+      <c r="AP1" s="13" t="s">
         <v>92</v>
-      </c>
-      <c r="AN1" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO1" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP1" s="13" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -59415,125 +59418,122 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK1"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:37" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>54</v>
+      <c r="M1" s="13" t="s">
+        <v>61</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="12" t="s">
+      <c r="N1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="O1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA1" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC1" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AF1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AG1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AH1" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AI1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="AH1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI1" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ1" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK1" s="13" t="s">
-        <v>95</v>
+      <c r="AJ1" s="13" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/erp/src/main/webapp/attachment/REPORT.xlsx
+++ b/erp/src/main/webapp/attachment/REPORT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="订单进度跟踪报表-大货" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="104">
   <si>
     <t>序号</t>
   </si>
@@ -439,6 +439,14 @@
   <si>
     <t>一级品类</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术完工日期（大货）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MR完成日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -889,7 +897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF3000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -59418,15 +59426,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ1"/>
+  <dimension ref="A1:AL1"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>93</v>
       </c>
@@ -59535,6 +59541,12 @@
       <c r="AJ1" s="13" t="s">
         <v>92</v>
       </c>
+      <c r="AK1" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/erp/src/main/webapp/attachment/REPORT.xlsx
+++ b/erp/src/main/webapp/attachment/REPORT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="订单进度跟踪报表-大货" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="106">
   <si>
     <t>序号</t>
   </si>
@@ -76,14 +76,6 @@
   </si>
   <si>
     <t>客户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级分类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MR处理人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -227,10 +219,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MR处理人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>订单号</t>
   </si>
   <si>
@@ -255,9 +243,6 @@
   <si>
     <t>订单进度</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责MR</t>
   </si>
   <si>
     <t>负责销售</t>
@@ -339,10 +324,6 @@
   </si>
   <si>
     <t>QA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级分类</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -446,6 +427,34 @@
   </si>
   <si>
     <t>MR完成日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级品类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级品类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级品类</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -897,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF3000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -934,25 +943,25 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>4</v>
@@ -961,22 +970,22 @@
         <v>5</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>7</v>
@@ -988,46 +997,46 @@
         <v>9</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Z1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4055,7 +4064,7 @@
   <dimension ref="A1:V3000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5214,67 +5223,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="P1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="V1" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
@@ -59279,138 +59288,138 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP1"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:42" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="I1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="Q1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="V1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="W1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="X1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="Y1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="AB1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AF1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AG1" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AB1" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AH1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AI1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AK1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AL1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AM1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AI1" s="13" t="s">
+      <c r="AN1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AO1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AP1" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="AL1" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM1" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN1" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="AO1" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP1" s="13" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -59428,124 +59437,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:38" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>55</v>
+      <c r="H1" s="13" t="s">
+        <v>89</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>56</v>
+      <c r="I1" s="13" t="s">
+        <v>94</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="J1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>94</v>
+      <c r="N1" s="13" t="s">
+        <v>58</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="O1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AG1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AH1" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AI1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="AD1" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE1" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF1" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG1" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH1" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI1" s="12" t="s">
-        <v>82</v>
-      </c>
       <c r="AJ1" s="13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AK1" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AL1" s="13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/erp/src/main/webapp/attachment/REPORT.xlsx
+++ b/erp/src/main/webapp/attachment/REPORT.xlsx
@@ -4,13 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="订单进度跟踪报表-大货" sheetId="1" r:id="rId1"/>
     <sheet name="订单进度跟踪报表-打版" sheetId="2" r:id="rId2"/>
-    <sheet name="历史订单分析报表" sheetId="3" r:id="rId3"/>
-    <sheet name="在制订单分析报表" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>序号</t>
   </si>
@@ -219,227 +217,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>订单号</t>
-  </si>
-  <si>
-    <t>订单类型</t>
-  </si>
-  <si>
-    <t>款号</t>
-  </si>
-  <si>
-    <t>款式描述</t>
-  </si>
-  <si>
-    <t>客户名称</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>下单日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单进度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责销售</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工厂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>车缝产出数量</t>
-  </si>
-  <si>
-    <t>检验合格数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>检验次品数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合格率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QA完成日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QA完成时TOC百分比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>R补录订单日期</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同交期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际生产周期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊工艺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>核价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CQC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>男/女款</t>
-  </si>
-  <si>
-    <t>合同号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款方式</t>
-  </si>
-  <si>
-    <t>订单完成日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单完成时TOC百分比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已发货数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际订单周期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同周期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与交期差额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>终止原因</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否需要复版</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>样衣是否合格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>核价S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>AM值</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级</t>
-  </si>
-  <si>
-    <t>下单日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前节点</t>
-  </si>
-  <si>
-    <t>当前负责人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>一级品类</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一级品类</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建议投料日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级品类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级品类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术完工日期（大货）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MR完成日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级品类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MR</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MR</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>二级品类</t>
@@ -517,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -540,15 +323,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -556,7 +330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -586,18 +360,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -906,7 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF3000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -943,13 +705,13 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -4063,8 +3825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5229,13 +4991,13 @@
         <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>32</v>
@@ -59282,288 +59044,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:42" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA1" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB1" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC1" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD1" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE1" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF1" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG1" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH1" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI1" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK1" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL1" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM1" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN1" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO1" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="AP1" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:38" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA1" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC1" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD1" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE1" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF1" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG1" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH1" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI1" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK1" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL1" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/erp/src/main/webapp/attachment/REPORT.xlsx
+++ b/erp/src/main/webapp/attachment/REPORT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="订单进度跟踪报表-大货" sheetId="1" r:id="rId1"/>
@@ -86,10 +86,6 @@
   </si>
   <si>
     <t>TPE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>车缝工厂</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -238,6 +234,10 @@
   </si>
   <si>
     <t>二级品类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>匠人坊</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF3000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -705,13 +705,13 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -732,22 +732,22 @@
         <v>5</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>7</v>
@@ -759,46 +759,46 @@
         <v>9</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Z1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3825,8 +3825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R1" sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4985,67 +4985,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
